--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed5/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.379999999999999</v>
+        <v>-8.169</v>
       </c>
       <c r="E3" t="n">
-        <v>16.594</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.651</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.468000000000001</v>
+        <v>-7.716000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.915999999999999</v>
+        <v>-7.673</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.782</v>
+        <v>16.323</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.512</v>
+        <v>-7.915000000000002</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.55</v>
+        <v>-21.761</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.906000000000001</v>
+        <v>-7.939</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.78</v>
+        <v>-20.339</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.698</v>
+        <v>-7.741</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.432</v>
+        <v>16.611</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.76</v>
+        <v>-7.539</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.668</v>
+        <v>-21.849</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.778</v>
+        <v>-21.869</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.08</v>
+        <v>-22.135</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.271000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.374</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.572</v>
+        <v>-21.577</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.608</v>
+        <v>-21.72</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.22</v>
+        <v>16.415</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.149</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.478</v>
+        <v>-21.586</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.278</v>
+        <v>17.243</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>16.534</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="93">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.398</v>
+        <v>-20.43</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.356</v>
+        <v>-8.280000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.068000000000001</v>
+        <v>-7.606</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.552</v>
       </c>
     </row>
   </sheetData>
